--- a/Data/EC/NIT-9017112608.xlsx
+++ b/Data/EC/NIT-9017112608.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D41846-FC6C-4BB5-81C6-019A6FB67467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4A474B-0BE2-4345-B9B0-9D031D3B5192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A6B6BC0-73CC-4F01-9505-8B342DC553FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51A43E70-3B77-4EAF-B0AE-5CBAB6E81294}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -72,6 +72,153 @@
   </si>
   <si>
     <t>2310</t>
+  </si>
+  <si>
+    <t>33108217</t>
+  </si>
+  <si>
+    <t>ELEIDIS MARIA MARTINEZ PANZA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>22790985</t>
+  </si>
+  <si>
+    <t>LENIS DEL ROSARIO AGUILAR RAMOS</t>
+  </si>
+  <si>
+    <t>1002321069</t>
+  </si>
+  <si>
+    <t>ISAURA ACOSTA VILLAR</t>
+  </si>
+  <si>
+    <t>45689297</t>
+  </si>
+  <si>
+    <t>NURIS PEREZ HERAZO</t>
+  </si>
+  <si>
+    <t>22793524</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN ARROYO ZUÑIGA</t>
+  </si>
+  <si>
+    <t>45492177</t>
+  </si>
+  <si>
+    <t>LILIANA ROMERO PAZ</t>
+  </si>
+  <si>
+    <t>1100011464</t>
+  </si>
+  <si>
+    <t>ATALIA MILAGRO BOLIVAR NAVARRO</t>
+  </si>
+  <si>
+    <t>45756898</t>
+  </si>
+  <si>
+    <t>JUANITA DEL CARMEN ESPITIA MORALES</t>
+  </si>
+  <si>
+    <t>73142180</t>
+  </si>
+  <si>
+    <t>HENRY RAMON HERRERA PLAZA</t>
+  </si>
+  <si>
+    <t>1002390353</t>
+  </si>
+  <si>
+    <t>KEYLEN SANCHEZ CUESTA</t>
+  </si>
+  <si>
+    <t>26176370</t>
+  </si>
+  <si>
+    <t>MARIA VICTORIA CASTELLANOS GONZALEZ</t>
+  </si>
+  <si>
+    <t>73150132</t>
+  </si>
+  <si>
+    <t>OSVALDO JOSE ROYERO CORONADO</t>
+  </si>
+  <si>
+    <t>1081921984</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO BERRIO RESTREPO</t>
+  </si>
+  <si>
+    <t>45757694</t>
+  </si>
+  <si>
+    <t>BERTILDA GARCIA FORTICH</t>
+  </si>
+  <si>
+    <t>1143385360</t>
+  </si>
+  <si>
+    <t>MARIA DEL PILAR SEHUANES VERGARA</t>
+  </si>
+  <si>
+    <t>45502601</t>
+  </si>
+  <si>
+    <t>ENITH MERCEDES NIETO BLANCO</t>
+  </si>
+  <si>
+    <t>50982864</t>
+  </si>
+  <si>
+    <t>ANGELA CRISTINA LOPEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>64476123</t>
+  </si>
+  <si>
+    <t>MARLENE AYLEN CORREA SIERRA</t>
+  </si>
+  <si>
+    <t>1143361235</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA HERRERA HERRERA</t>
+  </si>
+  <si>
+    <t>1047365006</t>
+  </si>
+  <si>
+    <t>JUAN GUILLERMO MUÑOZ HERRERA</t>
+  </si>
+  <si>
+    <t>1047452474</t>
+  </si>
+  <si>
+    <t>EDGAR JOSE REALES ALVARES</t>
+  </si>
+  <si>
+    <t>1043645205</t>
+  </si>
+  <si>
+    <t>BENICIA PAOLA SEHUANES VERGARA</t>
+  </si>
+  <si>
+    <t>1047504980</t>
+  </si>
+  <si>
+    <t>LILIANA AGAMEZ ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1043296034</t>
+  </si>
+  <si>
+    <t>ZHARICK PAOLA CAMPILLO CUADRO</t>
   </si>
   <si>
     <t>1047485489</t>
@@ -494,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B576CF-4EEE-7A7F-54EF-1B85325D6C55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BC57CA-01B9-EC8D-B650-114F67ABE582}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,8 +992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74699B50-424D-4854-BD1D-D69D9FDCF10D}">
-  <dimension ref="B2:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF7C673-9059-4DAB-AD17-95E906BC1DD1}">
+  <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -857,7 +1004,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -870,7 +1017,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -915,7 +1062,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -947,12 +1094,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>74133</v>
+        <v>1497633</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -963,17 +1110,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1000,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1033,56 +1180,631 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="24">
         <v>27733</v>
       </c>
-      <c r="G17" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="G42" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017112608.xlsx
+++ b/Data/EC/NIT-9017112608.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4A474B-0BE2-4345-B9B0-9D031D3B5192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{338788E5-E3D3-4DBB-8470-54D4377E71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51A43E70-3B77-4EAF-B0AE-5CBAB6E81294}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16C6B022-DAB5-4965-A570-4F75C73856C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,13 +74,22 @@
     <t>2310</t>
   </si>
   <si>
+    <t>1047485489</t>
+  </si>
+  <si>
+    <t>DAIRIS SEGOVIA PEREZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
     <t>33108217</t>
   </si>
   <si>
     <t>ELEIDIS MARIA MARTINEZ PANZA</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>22790985</t>
@@ -213,21 +222,6 @@
   </si>
   <si>
     <t>LILIANA AGAMEZ ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1043296034</t>
-  </si>
-  <si>
-    <t>ZHARICK PAOLA CAMPILLO CUADRO</t>
-  </si>
-  <si>
-    <t>1047485489</t>
-  </si>
-  <si>
-    <t>DAIRIS SEGOVIA PEREZ</t>
-  </si>
-  <si>
-    <t>2405</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +320,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +535,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +579,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BC57CA-01B9-EC8D-B650-114F67ABE582}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083CA263-5774-DB9D-0002-6242C71FC566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF7C673-9059-4DAB-AD17-95E906BC1DD1}">
-  <dimension ref="B2:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61771070-6A9A-41DC-A490-796027820268}">
+  <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1017,7 +1011,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1056,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1088,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1497633</v>
+        <v>1440693</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,14 +1104,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -1147,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1193,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>27733</v>
       </c>
       <c r="G17" s="18">
         <v>1423500</v>
@@ -1213,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>56940</v>
@@ -1230,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1253,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1299,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>56940</v>
@@ -1322,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1345,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1368,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1391,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1414,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1437,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
@@ -1460,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>56940</v>
@@ -1483,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F30" s="18">
         <v>56940</v>
@@ -1506,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F31" s="18">
         <v>56940</v>
@@ -1529,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F32" s="18">
         <v>56940</v>
@@ -1552,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F33" s="18">
         <v>56940</v>
@@ -1575,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
         <v>56940</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1598,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1621,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1644,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
         <v>56940</v>
@@ -1667,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1690,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1713,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F40" s="18">
         <v>56940</v>
@@ -1732,79 +1726,56 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="24">
-        <v>27733</v>
-      </c>
-      <c r="G42" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="B41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C47" s="32"/>
       <c r="H47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017112608.xlsx
+++ b/Data/EC/NIT-9017112608.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{338788E5-E3D3-4DBB-8470-54D4377E71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17424C0-DB08-4C85-A9B8-0BD95B9FD832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16C6B022-DAB5-4965-A570-4F75C73856C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D98CF957-9974-4AA9-A3D4-FEA995BED415}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -81,147 +81,6 @@
   </si>
   <si>
     <t>2405</t>
-  </si>
-  <si>
-    <t>33108217</t>
-  </si>
-  <si>
-    <t>ELEIDIS MARIA MARTINEZ PANZA</t>
-  </si>
-  <si>
-    <t>2508</t>
-  </si>
-  <si>
-    <t>22790985</t>
-  </si>
-  <si>
-    <t>LENIS DEL ROSARIO AGUILAR RAMOS</t>
-  </si>
-  <si>
-    <t>1002321069</t>
-  </si>
-  <si>
-    <t>ISAURA ACOSTA VILLAR</t>
-  </si>
-  <si>
-    <t>45689297</t>
-  </si>
-  <si>
-    <t>NURIS PEREZ HERAZO</t>
-  </si>
-  <si>
-    <t>22793524</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN ARROYO ZUÑIGA</t>
-  </si>
-  <si>
-    <t>45492177</t>
-  </si>
-  <si>
-    <t>LILIANA ROMERO PAZ</t>
-  </si>
-  <si>
-    <t>1100011464</t>
-  </si>
-  <si>
-    <t>ATALIA MILAGRO BOLIVAR NAVARRO</t>
-  </si>
-  <si>
-    <t>45756898</t>
-  </si>
-  <si>
-    <t>JUANITA DEL CARMEN ESPITIA MORALES</t>
-  </si>
-  <si>
-    <t>73142180</t>
-  </si>
-  <si>
-    <t>HENRY RAMON HERRERA PLAZA</t>
-  </si>
-  <si>
-    <t>1002390353</t>
-  </si>
-  <si>
-    <t>KEYLEN SANCHEZ CUESTA</t>
-  </si>
-  <si>
-    <t>26176370</t>
-  </si>
-  <si>
-    <t>MARIA VICTORIA CASTELLANOS GONZALEZ</t>
-  </si>
-  <si>
-    <t>73150132</t>
-  </si>
-  <si>
-    <t>OSVALDO JOSE ROYERO CORONADO</t>
-  </si>
-  <si>
-    <t>1081921984</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO BERRIO RESTREPO</t>
-  </si>
-  <si>
-    <t>45757694</t>
-  </si>
-  <si>
-    <t>BERTILDA GARCIA FORTICH</t>
-  </si>
-  <si>
-    <t>1143385360</t>
-  </si>
-  <si>
-    <t>MARIA DEL PILAR SEHUANES VERGARA</t>
-  </si>
-  <si>
-    <t>45502601</t>
-  </si>
-  <si>
-    <t>ENITH MERCEDES NIETO BLANCO</t>
-  </si>
-  <si>
-    <t>50982864</t>
-  </si>
-  <si>
-    <t>ANGELA CRISTINA LOPEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>64476123</t>
-  </si>
-  <si>
-    <t>MARLENE AYLEN CORREA SIERRA</t>
-  </si>
-  <si>
-    <t>1143361235</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA HERRERA HERRERA</t>
-  </si>
-  <si>
-    <t>1047365006</t>
-  </si>
-  <si>
-    <t>JUAN GUILLERMO MUÑOZ HERRERA</t>
-  </si>
-  <si>
-    <t>1047452474</t>
-  </si>
-  <si>
-    <t>EDGAR JOSE REALES ALVARES</t>
-  </si>
-  <si>
-    <t>1043645205</t>
-  </si>
-  <si>
-    <t>BENICIA PAOLA SEHUANES VERGARA</t>
-  </si>
-  <si>
-    <t>1047504980</t>
-  </si>
-  <si>
-    <t>LILIANA AGAMEZ ZUÑIGA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -320,22 +179,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,29 +388,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,19 +429,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083CA263-5774-DB9D-0002-6242C71FC566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E582A9A-208F-67E3-2426-963189A09044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,8 +851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61771070-6A9A-41DC-A490-796027820268}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FE1621-E01B-4DE7-AFA9-E66D0CA2206B}">
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -998,7 +863,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1009,57 +874,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9017112608</v>
       </c>
@@ -1088,12 +953,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1440693</v>
+        <v>74133</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1104,17 +969,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1141,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1160,622 +1025,70 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>46400</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1160000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="26">
         <v>27733</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="26">
         <v>1423500</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C23" s="34"/>
+      <c r="H23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G41" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
